--- a/功能模块设计.xlsx
+++ b/功能模块设计.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="118">
-  <si>
-    <t xml:space="preserve">海思教育</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">海思教育平台一期规划</t>
   </si>
   <si>
     <t xml:space="preserve">一级菜单</t>
@@ -46,7 +46,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -76,7 +75,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -94,7 +92,7 @@
     <t xml:space="preserve">五级功能</t>
   </si>
   <si>
-    <t xml:space="preserve">Action Path</t>
+    <t xml:space="preserve">Web Action Path</t>
   </si>
   <si>
     <t xml:space="preserve">Action Class</t>
@@ -145,7 +143,7 @@
     <t xml:space="preserve">regSchool</t>
   </si>
   <si>
-    <t xml:space="preserve">需要第一屏获取数据</t>
+    <t xml:space="preserve">需要第一屏获取数据，需要要求注册一个学校管理员</t>
   </si>
   <si>
     <t xml:space="preserve">删除学校</t>
@@ -157,7 +155,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">/Administration/manaSchool.action?method=delSchool&amp;school=[</t>
     </r>
@@ -176,13 +173,15 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ID]</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">delSchool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要第一屏获取数据</t>
   </si>
   <si>
     <t xml:space="preserve">维护学校</t>
@@ -194,7 +193,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">/Administration/manaSchool.action?method=editSchool&amp;school=[</t>
     </r>
@@ -213,7 +211,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ID]</t>
     </r>
@@ -231,7 +228,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">/Administration/manaSchool.action?method=displaySchool&amp;school=[</t>
     </r>
@@ -250,7 +246,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ID]</t>
     </r>
@@ -274,7 +269,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -301,40 +295,13 @@
     <t xml:space="preserve">/Administration/manaAdministrator.action?method=regAdministrator</t>
   </si>
   <si>
+    <t xml:space="preserve">AdminAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regAdministrator</t>
+  </si>
+  <si>
     <t xml:space="preserve">删除管理员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">维护管理员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询管理员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据维护</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始化平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据备份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据恢复</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校管理员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qunuadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">课程管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校管理员、教师用户</t>
   </si>
   <si>
     <r>
@@ -343,9 +310,8 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">qunuadmin</t>
+      </rPr>
+      <t xml:space="preserve">/Administration/manaAdministrator.action?method=delAdministrator&amp;administrator=[</t>
     </r>
     <r>
       <rPr>
@@ -354,7 +320,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">、</t>
+      <t xml:space="preserve">管理员</t>
     </r>
     <r>
       <rPr>
@@ -362,51 +328,56 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">teacherni</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">添设课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">删除课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">维护课程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">维护课程目录树</t>
-  </si>
-  <si>
-    <t xml:space="preserve">维护章节知识点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">维护配套视频</t>
-  </si>
-  <si>
-    <t xml:space="preserve">维护教案资料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询课程信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">教师管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注册教师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">删除教师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">维护教师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询教师信息</t>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve">ID]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">delAdministrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护管理员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询管理员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始化平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据备份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校管理员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qunuadmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">课程管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校管理员、教师用户</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">qunuadmin</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -414,7 +385,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">专业</t>
+      <t xml:space="preserve">、</t>
     </r>
     <r>
       <rPr>
@@ -422,7 +393,65 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">teacherni</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">添设课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护课程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护课程目录树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护章节知识点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护配套视频</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护教案资料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询课程信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教师管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注册教师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除教师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护教师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询教师信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -603,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -626,11 +655,17 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -675,7 +710,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,11 +719,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -704,398 +743,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="388440" y="677880"/>
-          <a:ext cx="0" cy="5157360"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="425880" y="6172200"/>
-          <a:ext cx="0" cy="7709760"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="401040" y="14503680"/>
-          <a:ext cx="0" cy="1366200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>225720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="401040" y="16431840"/>
-          <a:ext cx="0" cy="827640"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="401040" y="17769960"/>
-          <a:ext cx="0" cy="1028160"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>413280</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>413280</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="413280" y="19222560"/>
-          <a:ext cx="0" cy="574920"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="425880" y="20072520"/>
-          <a:ext cx="0" cy="988560"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450720</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450720</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>237600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="450720" y="21361320"/>
-          <a:ext cx="0" cy="586800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438480" y="22236840"/>
-          <a:ext cx="0" cy="1037160"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1103,8 +750,8 @@
   </sheetPr>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1121,8 +768,8 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.9574468085106"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -1139,7 +786,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1187,14 +834,14 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1203,17 +850,17 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1221,14 +868,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" customFormat="false" ht="54.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1238,7 +885,7 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1249,13 +896,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1265,8 +912,8 @@
       <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -1276,24 +923,24 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -1303,24 +950,24 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -1330,17 +977,17 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,17 +996,17 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1368,19 +1015,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1388,18 +1039,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1408,17 +1065,17 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1427,17 +1084,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,17 +1103,17 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,17 +1122,17 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1484,17 +1141,17 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1503,17 +1160,17 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,915 +1180,918 @@
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K24" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D38" s="4"/>
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="J39" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="J40" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="J45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="J50" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="J51" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="J52" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="J53" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="J56" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
       <c r="J57" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="J58" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="J59" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C60" s="4"/>
       <c r="J60" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="J62" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="J63" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="J64" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C65" s="4"/>
       <c r="J65" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="J66" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C67" s="4"/>
       <c r="J67" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="J68" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="J69" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="J71" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="J72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="J72" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="K72" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="J73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="J73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C74" s="4"/>
       <c r="J74" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C75" s="4"/>
       <c r="J75" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C76" s="4"/>
       <c r="J76" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
       <c r="J77" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C78" s="4"/>
       <c r="J78" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C79" s="4"/>
       <c r="J79" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="J80" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="J81" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="2"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2439,6 +2099,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>